--- a/L-D5019-01-05/Project Outputs/L-D5019-01-05_EVE.xlsx
+++ b/L-D5019-01-05/Project Outputs/L-D5019-01-05_EVE.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">CAPC_0805</t>
   </si>
   <si>
-    <t xml:space="preserve">C2, C3, C4, C5, C8, C10</t>
+    <t xml:space="preserve">C2, C3, C4, C5</t>
   </si>
   <si>
     <t xml:space="preserve">22p</t>
@@ -316,6 +316,7 @@
       <sz val="10"/>
       <name val="Tahoma"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -514,7 +515,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -583,9 +584,9 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>14</v>
